--- a/data/combined data/combined data - 2 tables/position_list.xlsx
+++ b/data/combined data/combined data - 2 tables/position_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A296"/>
+  <dimension ref="A1:A243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,2063 +443,1692 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10국장</t>
+          <t>1등서기관</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1등서기관</t>
+          <t>1부국장</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1부국장</t>
+          <t>1비서</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1비서</t>
+          <t>2등서기관</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2군단장</t>
+          <t>2부국장</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2등 서기관</t>
+          <t>2비서</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2등서기관</t>
+          <t>3등 서기관</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2부국장</t>
+          <t>3등서기관</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2비서</t>
+          <t>3비서</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3등 서기관</t>
+          <t>4비서</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3등서기관</t>
+          <t>5비서</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3비서</t>
+          <t>Uncertain</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4비서</t>
+          <t>uncertain</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5비서</t>
+          <t>간부</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Uncertain</t>
+          <t>강좌장</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>건설총국장</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>간부</t>
+          <t>경제연구사</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>간부국장</t>
+          <t>경제정책검열부장</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>강좌장</t>
+          <t>경제참사</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>건설운수부장</t>
+          <t>경호대장</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>건설총국장</t>
+          <t>고문</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>검열위원장</t>
+          <t>고문위원장</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>경공업부장</t>
+          <t>공병국장</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>경제연구사</t>
+          <t>공사</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>경제정책검열부장</t>
+          <t>공장장</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>경제참사</t>
+          <t>과장</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>경호대장</t>
+          <t>과학원장</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>고등교육상</t>
+          <t>관리위원장</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>고문</t>
+          <t>관장</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>고문위원장</t>
+          <t>교무부장</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>공동의장</t>
+          <t>교수</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>공동즤아</t>
+          <t>교원</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>공병국장</t>
+          <t>교장</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>공사</t>
+          <t>국가부주석</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>공업부장</t>
+          <t>국장</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>공업상</t>
+          <t>군단장</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>공장장</t>
+          <t>군사위원</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>과장</t>
+          <t>기사</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>과학기숡국장</t>
+          <t>기사장</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>관리위원장</t>
+          <t>기자</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>관장</t>
+          <t>내무국장</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>교무부장</t>
+          <t>노동자</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>교수</t>
+          <t>논설위원</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>교원</t>
+          <t>단장</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>교장</t>
+          <t>담당지도원</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>국가부주석</t>
+          <t>당비서</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>국장</t>
+          <t>대미특별대표</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>국제기구총국장</t>
+          <t>대사</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>군단장</t>
+          <t>대사대리</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>군사위원</t>
+          <t>대의원</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>급냉구조연구실장</t>
+          <t>대표</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>기계설계총국장</t>
+          <t>대학생담당비서</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>기사</t>
+          <t>명예교수</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>기사장</t>
+          <t>명예부위원장</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>기자</t>
+          <t>명예위원장</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>내무국장</t>
+          <t>명예참사</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>노동자</t>
+          <t>명예총재</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>논설위원</t>
+          <t>무관</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>농업과학연구원장</t>
+          <t>무관보</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>농업과학원장</t>
+          <t>법제위원</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>농촌경리위원장</t>
+          <t>보위사령관</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>단장</t>
+          <t>보위원장</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>담당지도원</t>
+          <t>보좌관</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>당 비서</t>
+          <t>부과장</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>당비서</t>
+          <t>부국장</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>대미특별대표</t>
+          <t>부군단장</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>대사</t>
+          <t>부기사장</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>대사대리</t>
+          <t>부단장</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>대외사업국장</t>
+          <t>부대표</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>대의원</t>
+          <t>부부장</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>대표</t>
+          <t>부사령관</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>대학생 담당 비서</t>
+          <t>부사장</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>도시건설국장</t>
+          <t>부상</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>명예교수</t>
+          <t>부소장</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>명예부위원장</t>
+          <t>부수상</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>명예위원장</t>
+          <t>부실장</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>명예참사</t>
+          <t>부원</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>명예총재</t>
+          <t>부원장</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>무관</t>
+          <t>부위원장</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>무관보</t>
+          <t>부의장</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>문화부장</t>
+          <t>부이사장</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>문화예술과장</t>
+          <t>부장</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>미주과장</t>
+          <t>부정</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>법제위원</t>
+          <t>부주석</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>보위국장</t>
+          <t>부주필</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>보위사령관</t>
+          <t>부참모장</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>보위원장</t>
+          <t>부총국장</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>보좌관</t>
+          <t>부총리</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>보천보전자악단장</t>
+          <t>부총장</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>부과장</t>
+          <t>부총재</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>부구장</t>
+          <t>부총참모장</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>부국장</t>
+          <t>부학장</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>부군단장</t>
+          <t>부회장</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>부기사장</t>
+          <t>북측수석대표</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>부단장</t>
+          <t>비서</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>부대표</t>
+          <t>사단장</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>부부장</t>
+          <t>사령관</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>부사령관</t>
+          <t>사무국장</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>부사장</t>
+          <t>사무장</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>부상</t>
+          <t>사무차장</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>부소장</t>
+          <t>사무총장</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>부수상</t>
+          <t>사장</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>부실장</t>
+          <t>사회과학위원</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>부원</t>
+          <t>상</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>부원장</t>
+          <t>상교수</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>부위원장</t>
+          <t>상급연구원</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>부의장</t>
+          <t>상급연출가</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>부이사장</t>
+          <t>상급참모</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>부장</t>
+          <t>상급창모</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>부주석</t>
+          <t>상무위원</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>부주필</t>
+          <t>상임대표</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>부참모장</t>
+          <t>상임위원</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>부총국장</t>
+          <t>서기</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>부총리</t>
+          <t>서기관</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>부총장</t>
+          <t>서기국장</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>부총재</t>
+          <t>서기장</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>부총참모장</t>
+          <t>서부관리국장</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>부학장</t>
+          <t>선임</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>부회장</t>
+          <t>선전부국장</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>북측수석대표</t>
+          <t>선전부장</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>비서</t>
+          <t>선전부총국장</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>사단장</t>
+          <t>설계국장</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>사령관</t>
+          <t>성</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>사무국장</t>
+          <t>성원</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>사무장</t>
+          <t>소장</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>사무차장</t>
+          <t>소장대리</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>사무총장</t>
+          <t>소조원</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>사장</t>
+          <t>수상</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>사회과학위원</t>
+          <t>수송지휘국장</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>상</t>
+          <t>수위</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>상교수</t>
+          <t>순회대사</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>상급 연출가</t>
+          <t>승려</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>상급연구소</t>
+          <t>실장</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>상급연구원</t>
+          <t>연구사</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>상급참모</t>
+          <t>연구실장</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>상급창모</t>
+          <t>연구원</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>상무위원</t>
+          <t>연구원장</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>상임대표</t>
+          <t>연대장</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>상임위원</t>
+          <t>연출가</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>서기</t>
+          <t>영사</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>서기관</t>
+          <t>영어통역관</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>서기국장</t>
+          <t>예술부총장</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>서기장</t>
+          <t>외교부장영어통역관</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>서부관리국장</t>
+          <t>외사국장</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>선전부국장</t>
+          <t>원수</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>선전부장</t>
+          <t>원장</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>선전부총국장</t>
+          <t>위원</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>설계국장</t>
+          <t>위원장</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>성</t>
+          <t>위원장대리</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>성원</t>
+          <t>의례국장</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>소장</t>
+          <t>의원</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>소장대리</t>
+          <t>의장</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>소조원</t>
+          <t>이사</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>수상</t>
+          <t>이사장</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>수송지휘국장</t>
+          <t>임시대사대리</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>수위</t>
+          <t>임원</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>순회대사</t>
+          <t>자격심사위원</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>승려</t>
+          <t>자문위원</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>실장</t>
+          <t>작전국장</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>아주국장</t>
+          <t>장</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>연구사</t>
+          <t>재1부총참모장</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>연구원</t>
+          <t>전문위원</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>연대장</t>
+          <t>정찰국장</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>연출가</t>
+          <t>정치위원</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>영사</t>
+          <t>제1국장</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>영어통역관</t>
+          <t>제1단장</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>예술부총장</t>
+          <t>제1부국장</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>외교부장 영어통역관</t>
+          <t>제1부부장</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>외사국장</t>
+          <t>제1부상</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>원수</t>
+          <t>제1부수상</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>원장</t>
+          <t>제1부위원장</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>위우ㅝㄴ장</t>
+          <t>제1부주석</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>위워</t>
+          <t>제1부주필</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>위원</t>
+          <t>제1부총국장</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>위원(보선)</t>
+          <t>제1부총리</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>위원장</t>
+          <t>제1부총장</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>위원장 대리</t>
+          <t>제1부총참모장</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>위원회</t>
+          <t>제1비서</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>육해운상</t>
+          <t>제1사무국장</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>의례국장</t>
+          <t>제1사무장</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>의원</t>
+          <t>제1위원장</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>의장</t>
+          <t>제2부수상</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>이사</t>
+          <t>제2비서</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>이사장</t>
+          <t>제3사무국장</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>인민보안부장</t>
+          <t>조약국장</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>임시대리 대사</t>
+          <t>조직대표</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>임시대리대사</t>
+          <t>조직비서</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>임시대사대리</t>
+          <t>종합분과장</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>임원</t>
+          <t>주석</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>자격심사위원</t>
+          <t>주필</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>자문위원</t>
+          <t>중앙위원</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>작전국장</t>
+          <t>중앙위원장</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>장</t>
+          <t>지도원</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>재1부총참모장</t>
+          <t>지배인</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>재정부장</t>
+          <t>직속과장</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>전단장</t>
+          <t>집행부위원장</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>전문위원</t>
+          <t>집행위원</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>전문위원(1급 연구원)</t>
+          <t>차석대사</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>정찰국장</t>
+          <t>참모장</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>정찰총국장</t>
+          <t>참사</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>정책국장</t>
+          <t>참사관</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>정치국장</t>
+          <t>창작부장</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>정치부장</t>
+          <t>책임보좌원</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>정치위원</t>
+          <t>책임비서</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>정치위원(소장)</t>
+          <t>책임서기</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>제1국장</t>
+          <t>책임자</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>제1단장</t>
+          <t>책임주필</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>제1부국장</t>
+          <t>책임지도원</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>제1부부장</t>
+          <t>책임참사</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>제1부상</t>
+          <t>처장</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>제1부수상</t>
+          <t>초급당비서</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>제1부위원장</t>
+          <t>총국장</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>제1부주석</t>
+          <t>총리</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>제1부주필</t>
+          <t>총리대리</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>제1부총국장</t>
+          <t>총비서</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>제1부총리</t>
+          <t>총사장</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>제1부총장</t>
+          <t>총영사직무대리</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>제1부총참모장</t>
+          <t>총장</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>제1비서</t>
+          <t>총재</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>제1사무국장</t>
+          <t>총정치국장</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>제1사무장</t>
+          <t>총참모장</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>제1위원장</t>
+          <t>최고고문</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>제2부수상</t>
+          <t>최고사령관</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>제2비서</t>
+          <t>통신국장</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>제3사무국장</t>
+          <t>통일담당책임참사</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>제9군단장</t>
+          <t>통일전선부장</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>제부장</t>
+          <t>편집국장</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>제위원장</t>
+          <t>포병국장</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>제총장</t>
+          <t>학교장</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>조약국장</t>
+          <t>학부장</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>조직대표</t>
+          <t>학장</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>조직부국장</t>
+          <t>행정국장</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>조직부장</t>
+          <t>행정부국장</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>조직비서</t>
+          <t>행정부장</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>종합분과장</t>
+          <t>행정조직국장</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>주석</t>
+          <t>호보위원</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>주필</t>
+          <t>호위사령관</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>중앙위원</t>
+          <t>회장</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>중앙위원장</t>
+          <t>후방총국장</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>지도원</t>
+          <t>후보</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>지배인</t>
+          <t>후보위원</t>
         </is>
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>직속과장</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>집행부위원장</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>집행위원</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>차석대사</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>참모장</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>참모장(대좌)</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>참사</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>참사관</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>창작부장</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>책임보좌원</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>책임비서</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>책임서기</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>책임자</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>책임주필</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>책임지도원</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>책임참사</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>처장</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>체육과학원장</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>체육기술연맹위원장</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>체육지도국장</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>체육지도위원장</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>초급당비서</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>총국장</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>총리</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>총리대리</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>총비서</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>총사장</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>총영사 직무대리</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>총장</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>총재</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>총정치국장</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>총참모장</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>최고고문</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>최고사령관</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>통신국장</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>통일담당 책임참사</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>통일전선부장</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>편집국장</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>포병국장</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>학교장</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>학부장</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>학장</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>행정국장</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>행정부국장</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>행정부장</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>행정조직국장</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>호보위원</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>호위사령관</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>회장</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>후방총국장</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>후보</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>후보위원</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>후보위원(보선)</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr"/>
+      <c r="A243" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
